--- a/ConsoleApp1/bin/Debug/net8.0/Database1.xlsx
+++ b/ConsoleApp1/bin/Debug/net8.0/Database1.xlsx
@@ -5,20 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\notso\OneDrive\Desktop\Project2\ConsoleApp1\bin\Debug\net8.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\notso\OneDrive\Desktop\GitHub\PreprocessorDB\ConsoleApp1\bin\Debug\net8.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261FE879-A141-4792-AE39-41FDA492844F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583BFC29-A885-4AD4-AFE9-2F28C8EA4A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37125" yWindow="9345" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -27,24 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Main_attribute</t>
-  </si>
-  <si>
-    <t>Damage</t>
-  </si>
-  <si>
-    <t>Attack_type</t>
-  </si>
-  <si>
-    <t>Move_speed</t>
-  </si>
-  <si>
-    <t>Difficulty</t>
-  </si>
-  <si>
     <t>Riki</t>
   </si>
   <si>
@@ -82,6 +73,24 @@
   </si>
   <si>
     <t>Hard</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Главный_аттрибут</t>
+  </si>
+  <si>
+    <t>Урон</t>
+  </si>
+  <si>
+    <t>Тип_атаки</t>
+  </si>
+  <si>
+    <t>Скорость_передвижения</t>
+  </si>
+  <si>
+    <t>Сложность</t>
   </si>
 </sst>
 </file>
@@ -430,130 +439,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3">
         <v>58</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E2" s="3">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3">
         <v>59</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3">
         <v>355</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
         <v>56</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3">
         <v>350</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3">
         <v>64</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E5" s="3">
         <v>360</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3">
         <v>62</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E6" s="3">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/ConsoleApp1/bin/Debug/net8.0/Database1.xlsx
+++ b/ConsoleApp1/bin/Debug/net8.0/Database1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\notso\OneDrive\Desktop\GitHub\PreprocessorDB\ConsoleApp1\bin\Debug\net8.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583BFC29-A885-4AD4-AFE9-2F28C8EA4A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A55A96-E02A-4025-BE8E-019ADF62A3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37125" yWindow="9345" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
